--- a/medicine/Sexualité et sexologie/Branlette_espagnole/Branlette_espagnole.xlsx
+++ b/medicine/Sexualité et sexologie/Branlette_espagnole/Branlette_espagnole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La branlette espagnole ou cravate de notaire ou encore position 45 est un acte sexuel humain pratiqué lors d'une relation hétérosexuelle, consistant à stimuler le pénis de l'homme, placé dans le sillon intermammaire, à l'aide des seins de la femme. 
 </t>
@@ -511,9 +523,11 @@
           <t>Positions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs positions sont possibles pour réaliser une branlette espagnole : soit la femme est allongée, et son partenaire s'assoit sur elle en plaçant son pénis entre ses seins et en effectuant lui-même des va-et-viens, soit la femme se met à califourchon au dessus de l'homme et le masturbe avec sa poitrine[1]. La stimulation du pénis peut mener jusqu'à l'éjaculation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs positions sont possibles pour réaliser une branlette espagnole : soit la femme est allongée, et son partenaire s'assoit sur elle en plaçant son pénis entre ses seins et en effectuant lui-même des va-et-viens, soit la femme se met à califourchon au dessus de l'homme et le masturbe avec sa poitrine. La stimulation du pénis peut mener jusqu'à l'éjaculation.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coït intermammaire est une pratique sexuelle à faible risque : en effet, il n'y a pas de contact entre les muqueuses génitales des deux partenaires, contrairement à une pénétration vaginale. C'est également une pratique plus sûre que le sexe oral (fellation), qui peut transmettre une infection sexuellement transmissible[2].  La branlette espagnole est utilisée par certaines travailleuses du sexe comme pratique alternative à la pénétration lorsque leur client refuse d'utiliser un préservatif[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coït intermammaire est une pratique sexuelle à faible risque : en effet, il n'y a pas de contact entre les muqueuses génitales des deux partenaires, contrairement à une pénétration vaginale. C'est également une pratique plus sûre que le sexe oral (fellation), qui peut transmettre une infection sexuellement transmissible.  La branlette espagnole est utilisée par certaines travailleuses du sexe comme pratique alternative à la pénétration lorsque leur client refuse d'utiliser un préservatif.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En français, la branlette espagnole est également appelée « cravate de notaire », car autrefois, seuls certains notables, dont les notaires, portaient une cravate au quotidien[3],[4],[5]. Cette pratique porte le nom savant de « mazophallation » (du grec : sein et phallus)[6] ou plus rarement de « cinépimastie » (du grec : mouvement entre les seins)[7]. Elle peut également être nommée « coït intermammaire »[1].
-En russe, la pratique s'appelle également « branlette espagnole » ; en néerlandais, c'est « cravate espagnole » (spaanse plastron) et en polonais « amour espagnol » (miłość hiszpańska). On retrouve des références à l'Espagne en grec et en portugais également[8].
-En Espagne, la pratique est appelée « Cubano » en référence à Cuba. En Colombie et au Venezuela, elle porte le nom de « branlette russe » (paja rusa), tandis qu'en Argentine, elle est appelée « faire une turque » (hacer una turca). En Suède, son nom « le florentin » (ett florentinskt) s'inspire de la ville italienne de Florence[8].
-En anglais, l'une des expressions argotiques pour désigner cette pratique est French fuck (littéralement « baise à la française »), remontant aux années 1930[9],[10]. Elle est également appelée tit fuck (littéralement « baise(r) des seins »), tant comme nom que comme verbe[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, la branlette espagnole est également appelée « cravate de notaire », car autrefois, seuls certains notables, dont les notaires, portaient une cravate au quotidien. Cette pratique porte le nom savant de « mazophallation » (du grec : sein et phallus) ou plus rarement de « cinépimastie » (du grec : mouvement entre les seins). Elle peut également être nommée « coït intermammaire ».
+En russe, la pratique s'appelle également « branlette espagnole » ; en néerlandais, c'est « cravate espagnole » (spaanse plastron) et en polonais « amour espagnol » (miłość hiszpańska). On retrouve des références à l'Espagne en grec et en portugais également.
+En Espagne, la pratique est appelée « Cubano » en référence à Cuba. En Colombie et au Venezuela, elle porte le nom de « branlette russe » (paja rusa), tandis qu'en Argentine, elle est appelée « faire une turque » (hacer una turca). En Suède, son nom « le florentin » (ett florentinskt) s'inspire de la ville italienne de Florence.
+En anglais, l'une des expressions argotiques pour désigner cette pratique est French fuck (littéralement « baise à la française »), remontant aux années 1930,. Elle est également appelée tit fuck (littéralement « baise(r) des seins »), tant comme nom que comme verbe.
 </t>
         </is>
       </c>
